--- a/data/trans_camb/P1434-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1434-Dificultad-trans_camb.xlsx
@@ -590,7 +590,7 @@
         <v>-2.352122030602658</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-1.306837028241762</v>
+        <v>-1.306837028241761</v>
       </c>
     </row>
     <row r="5">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.842726099287009</v>
+        <v>-4.854383388033242</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.464760928373378</v>
+        <v>-4.401254250074875</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.687623770615269</v>
+        <v>-3.531907270751947</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.7259345689348801</v>
+        <v>-0.6792877021616487</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.5012747951327468</v>
+        <v>-0.3492706779807819</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.071349227971502</v>
+        <v>1.196589441522732</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>-0.4365777354840927</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.2425622238189605</v>
+        <v>-0.2425622238189604</v>
       </c>
     </row>
     <row r="8">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7059411418383035</v>
+        <v>-0.7237612901921342</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6482717191964402</v>
+        <v>-0.6387763463003596</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5566541038360092</v>
+        <v>-0.539080448193221</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.1319889373136457</v>
+        <v>-0.1501401279287636</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.1228352760506139</v>
+        <v>-0.04922432437045276</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2450426663456164</v>
+        <v>0.3114276147758955</v>
       </c>
     </row>
     <row r="10">
@@ -696,7 +696,7 @@
         <v>-0.05876340040053968</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3.092654554311174</v>
+        <v>3.092654554311173</v>
       </c>
     </row>
     <row r="11">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.9841505055831623</v>
+        <v>-0.9388988528071636</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.502122821354134</v>
+        <v>-1.520396215643929</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.665688540774042</v>
+        <v>1.55132198318788</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.102381200944168</v>
+        <v>2.18884563844175</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.482588482521346</v>
+        <v>1.450781773296989</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.964809832283567</v>
+        <v>4.696423714556023</v>
       </c>
     </row>
     <row r="13">
@@ -747,7 +747,7 @@
         <v>-0.0194039065724391</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1.021206731122578</v>
+        <v>1.021206731122577</v>
       </c>
     </row>
     <row r="14">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2633024246056722</v>
+        <v>-0.2572001489302904</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3938777526518501</v>
+        <v>-0.4329251193316451</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4203006573612127</v>
+        <v>0.3878839956050828</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.9662682514837453</v>
+        <v>0.9414473677726525</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6551437207378941</v>
+        <v>0.5973045896698991</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.104406779640767</v>
+        <v>2.063596551812541</v>
       </c>
     </row>
     <row r="16">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3438427248403769</v>
+        <v>0.3330241351526273</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1181038291442211</v>
+        <v>0.007802320495917114</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.535040093013666</v>
+        <v>2.473812383229093</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.849540976205715</v>
+        <v>3.766725450005744</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.098358066957775</v>
+        <v>3.078138639395387</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.623573006747291</v>
+        <v>5.678357410888724</v>
       </c>
     </row>
     <row r="19">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1413713784837673</v>
+        <v>0.1163571258013163</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.02428512042686933</v>
+        <v>-0.02582371587163931</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.8305746860106741</v>
+        <v>0.8054797552381876</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.53372767406852</v>
+        <v>2.329041186937026</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.903868511513261</v>
+        <v>1.943168000772436</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.677324401124393</v>
+        <v>3.697001155909533</v>
       </c>
     </row>
     <row r="22">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.020209629130666</v>
+        <v>-1.279446341790995</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.633435023456603</v>
+        <v>-3.002621178465797</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.4871104692563077</v>
+        <v>-0.3177794920421421</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.298662847346922</v>
+        <v>3.965081106225798</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.779158115736984</v>
+        <v>1.657638529294595</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.806804478237678</v>
+        <v>3.754170503159197</v>
       </c>
     </row>
     <row r="25">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2786194845348172</v>
+        <v>-0.3263962753563052</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5973847914945125</v>
+        <v>-0.6499290557945767</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1113019366557597</v>
+        <v>-0.09958177283856763</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.270923550405033</v>
+        <v>2.141979596907996</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.034690971427505</v>
+        <v>0.8658447475861408</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.051875205593802</v>
+        <v>1.975102094736554</v>
       </c>
     </row>
     <row r="28">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.5393596197274617</v>
+        <v>-0.515419304424743</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.9259130064550684</v>
+        <v>-0.8764705402228847</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.46631122112214</v>
+        <v>1.527529291696843</v>
       </c>
     </row>
     <row r="30">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.311177137721544</v>
+        <v>1.385830496367076</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.7750427318712193</v>
+        <v>0.7892599215751447</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.286194022254807</v>
+        <v>3.426100874213342</v>
       </c>
     </row>
     <row r="31">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1517585230413673</v>
+        <v>-0.1402616196720119</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2606042286156743</v>
+        <v>-0.2399456577851664</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.3788146273443534</v>
+        <v>0.3937802403539014</v>
       </c>
     </row>
     <row r="33">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4817032750184712</v>
+        <v>0.515158997104966</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2827483129560417</v>
+        <v>0.2875471735126197</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.176480227897026</v>
+        <v>1.268846599537749</v>
       </c>
     </row>
     <row r="34">
